--- a/test2.xlsx
+++ b/test2.xlsx
@@ -975,41 +975,41 @@
     <row r="3" ht="13.9" customHeight="1" s="21">
       <c r="A3" s="34" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
       <c r="B3" s="28" t="n">
-        <v>68.3</v>
+        <v>53.7</v>
       </c>
       <c r="C3" s="28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3" s="28" t="n">
-        <v>2.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F3" s="28" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="G3" s="28" t="n">
-        <v>32.8</v>
+        <v>27</v>
       </c>
       <c r="H3" s="35" t="n">
-        <v>51.4</v>
+        <v>56.8</v>
       </c>
       <c r="I3" s="36" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="J3" s="37" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K3" s="37" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L3" s="38" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M3" s="36" t="n"/>
       <c r="N3" s="37" t="n"/>
@@ -1028,27 +1028,27 @@
       <c r="AA3" s="37" t="n"/>
       <c r="AB3" s="38" t="n"/>
       <c r="AC3" s="28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD3" s="28" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="39" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>2/5</t>
         </is>
       </c>
       <c r="AF3" s="39" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AG3" s="28" t="n">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AH3" s="28" t="n"/>
       <c r="AI3" s="39" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="AJ3" s="40" t="n"/>
       <c r="AK3" s="29" t="n"/>
@@ -1274,41 +1274,41 @@
     <row r="6" ht="13.9" customHeight="1" s="21">
       <c r="A6" s="34" t="inlineStr">
         <is>
-          <t>LA Clippers</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
       <c r="B6" s="28" t="n">
-        <v>51.2</v>
+        <v>26.8</v>
       </c>
       <c r="C6" s="28" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6" s="28" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E6" s="28" t="n">
-        <v>-0.2</v>
+        <v>-1.3</v>
       </c>
       <c r="F6" s="28" t="n">
-        <v>1.4</v>
+        <v>-2</v>
       </c>
       <c r="G6" s="28" t="n">
-        <v>33.5</v>
+        <v>41.1</v>
       </c>
       <c r="H6" s="35" t="n">
-        <v>49.6</v>
+        <v>44.8</v>
       </c>
       <c r="I6" s="36" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="J6" s="37" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K6" s="37" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L6" s="38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="36" t="n"/>
       <c r="N6" s="37" t="n"/>
@@ -1327,14 +1327,14 @@
       <c r="AA6" s="37" t="n"/>
       <c r="AB6" s="38" t="n"/>
       <c r="AC6" s="46" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE6" s="39" t="inlineStr">
         <is>
-          <t>3/5</t>
+          <t>2/5</t>
         </is>
       </c>
       <c r="AF6" s="39" t="inlineStr">
@@ -1343,11 +1343,11 @@
         </is>
       </c>
       <c r="AG6" s="28" t="n">
-        <v>-1.8</v>
+        <v>0.1</v>
       </c>
       <c r="AH6" s="28" t="n"/>
       <c r="AI6" s="39" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AJ6" s="43" t="n"/>
       <c r="AK6" s="44" t="n"/>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1048,7 +1048,7 @@
       </c>
       <c r="AH3" s="28" t="n"/>
       <c r="AI3" s="39" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="AJ3" s="40" t="n"/>
       <c r="AK3" s="29" t="n"/>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="AH6" s="28" t="n"/>
       <c r="AI6" s="39" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AJ6" s="43" t="n"/>
       <c r="AK6" s="44" t="n"/>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1048,7 +1048,7 @@
       </c>
       <c r="AH3" s="28" t="n"/>
       <c r="AI3" s="39" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="AJ3" s="40" t="n"/>
       <c r="AK3" s="29" t="n"/>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="AH6" s="28" t="n"/>
       <c r="AI6" s="39" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AJ6" s="43" t="n"/>
       <c r="AK6" s="44" t="n"/>
